--- a/src/Apuestas-Gambits/Gamble serie G/Serie G - Config Workflow.xlsx
+++ b/src/Apuestas-Gambits/Gamble serie G/Serie G - Config Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\CD03\dm2023a\src\workflow-colab\Editados\Apuestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\CD03\dm2023a\src\Apuestas-Gambits\Gamble serie G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306A435-07FE-4821-826B-54B1A7D72833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8D2A1-41BC-4BE4-AEEF-9ABDDCBC9FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3165" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
   <si>
     <t>Archivo</t>
   </si>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,6 +1040,9 @@
       </c>
       <c r="C20" t="s">
         <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -1102,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DC643-BAFD-4FBD-9022-C3B409821E33}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
